--- a/data/trans_dic/P43-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P43-Clase-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4047860289074258</v>
+        <v>0.404127722980682</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3766472702601337</v>
+        <v>0.3731647393950339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4345968489456534</v>
+        <v>0.438348624581985</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5681961878251913</v>
+        <v>0.5661059336799348</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5206439955669433</v>
+        <v>0.5150634804486862</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4962412431536292</v>
+        <v>0.4874334137394948</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5447692006057022</v>
+        <v>0.5453789100467058</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6638775942091556</v>
+        <v>0.6642258463456541</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.4662055908571651</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5959080684881646</v>
+        <v>0.5959080684881645</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2635564484271881</v>
+        <v>0.2663191754208157</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3368998320005563</v>
+        <v>0.3359414832433267</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4087888008425336</v>
+        <v>0.4178297673565444</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5452632035317386</v>
+        <v>0.5464966620084369</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3607818524458116</v>
+        <v>0.359883263134789</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4515659955205579</v>
+        <v>0.4493434440256752</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5155006095881192</v>
+        <v>0.5222377451458086</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6439093561254688</v>
+        <v>0.6450781890943067</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.5596560092237619</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6241722186779188</v>
+        <v>0.6241722186779187</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3353687025717474</v>
+        <v>0.3353639820708788</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4515342127149497</v>
+        <v>0.4593641429469199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4834238781022488</v>
+        <v>0.4708731386056374</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5390611393625147</v>
+        <v>0.5446429485539473</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4863825667029743</v>
+        <v>0.4885812072228934</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.586169751510508</v>
+        <v>0.5881385799297505</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6367125637963653</v>
+        <v>0.641150325613057</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6954944675660735</v>
+        <v>0.7047478103319912</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.4116450622806277</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4825369648715372</v>
+        <v>0.4825369648715371</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3005908993686212</v>
+        <v>0.2975892778736913</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3581192785479174</v>
+        <v>0.3573912451180408</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3756210526945981</v>
+        <v>0.3789212414094103</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4473934565004971</v>
+        <v>0.4497447402908849</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3723819640652199</v>
+        <v>0.3668868315600431</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4329793374188847</v>
+        <v>0.4305787366881504</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4472726988096735</v>
+        <v>0.4456582184874321</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.519506012598397</v>
+        <v>0.5179852473736475</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3203882803218867</v>
+        <v>0.3187766023037786</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4800881897540468</v>
+        <v>0.479577343280399</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5318859560044849</v>
+        <v>0.5309770875681885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5032391911243926</v>
+        <v>0.5034534882934276</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4000946613784456</v>
+        <v>0.4023683732955524</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.552429432344326</v>
+        <v>0.5544735011595544</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6069134911156845</v>
+        <v>0.6047042957903004</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5712060496426868</v>
+        <v>0.5713648009118103</v>
       </c>
     </row>
     <row r="19">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3827921094814387</v>
+        <v>0.3824306294000079</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4863515969863927</v>
+        <v>0.4881380668740258</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4916849970886684</v>
+        <v>0.4888069602047022</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4216155763957736</v>
+        <v>0.4142400199762555</v>
       </c>
     </row>
     <row r="21">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4394699959336046</v>
+        <v>0.4364430448089988</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5455884755176353</v>
+        <v>0.5490917341416524</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5567685600283907</v>
+        <v>0.5529494643849526</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4907003961589553</v>
+        <v>0.4906624513551318</v>
       </c>
     </row>
     <row r="22">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3626840013147</v>
+        <v>0.3624148085229529</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4557895496118799</v>
+        <v>0.45352927562887</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4817044856915875</v>
+        <v>0.4835833452255902</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5053018840890471</v>
+        <v>0.5079588320376716</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3973022005064982</v>
+        <v>0.3953104012530411</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4894393781998035</v>
+        <v>0.4887208061385128</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5164846886310904</v>
+        <v>0.5184720538947999</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.540454554458352</v>
+        <v>0.5422792299357477</v>
       </c>
     </row>
     <row r="25">
@@ -1176,16 +1176,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>123290</v>
+        <v>123090</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>118438</v>
+        <v>117343</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>149699</v>
+        <v>150992</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>192125</v>
+        <v>191419</v>
       </c>
     </row>
     <row r="7">
@@ -1196,16 +1196,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>158578</v>
+        <v>156879</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>156045</v>
+        <v>153275</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>187649</v>
+        <v>187859</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>224478</v>
+        <v>224596</v>
       </c>
     </row>
     <row r="8">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>97486</v>
+        <v>98508</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>112071</v>
+        <v>111753</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>151363</v>
+        <v>154710</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>168514</v>
+        <v>168895</v>
       </c>
     </row>
     <row r="11">
@@ -1280,16 +1280,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>133449</v>
+        <v>133116</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>150216</v>
+        <v>149476</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>190875</v>
+        <v>193369</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>199001</v>
+        <v>199362</v>
       </c>
     </row>
     <row r="12">
@@ -1344,16 +1344,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>55940</v>
+        <v>55939</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>116515</v>
+        <v>118535</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>80308</v>
+        <v>78223</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>70836</v>
+        <v>71569</v>
       </c>
     </row>
     <row r="15">
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>81130</v>
+        <v>81496</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>151256</v>
+        <v>151764</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>105773</v>
+        <v>106510</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>91392</v>
+        <v>92608</v>
       </c>
     </row>
     <row r="16">
@@ -1428,16 +1428,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>213900</v>
+        <v>211765</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>273086</v>
+        <v>272531</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>309127</v>
+        <v>311843</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>278860</v>
+        <v>280326</v>
       </c>
     </row>
     <row r="19">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>264987</v>
+        <v>261077</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>330171</v>
+        <v>328340</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>368095</v>
+        <v>366766</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>323808</v>
+        <v>322860</v>
       </c>
     </row>
     <row r="20">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>181523</v>
+        <v>180610</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>363683</v>
+        <v>363296</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>390373</v>
+        <v>389706</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>326234</v>
+        <v>326373</v>
       </c>
     </row>
     <row r="23">
@@ -1532,16 +1532,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>226682</v>
+        <v>227971</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>418484</v>
+        <v>420032</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>445439</v>
+        <v>443818</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>370295</v>
+        <v>370398</v>
       </c>
     </row>
     <row r="24">
@@ -1596,16 +1596,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>474271</v>
+        <v>473824</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>536983</v>
+        <v>538956</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>525600</v>
+        <v>522523</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>287186</v>
+        <v>282162</v>
       </c>
     </row>
     <row r="27">
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>544494</v>
+        <v>540744</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>602387</v>
+        <v>606255</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>595173</v>
+        <v>591090</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>334244</v>
+        <v>334218</v>
       </c>
     </row>
     <row r="28">
@@ -1680,16 +1680,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1218046</v>
+        <v>1217142</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1608638</v>
+        <v>1600661</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1689214</v>
+        <v>1695803</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1380138</v>
+        <v>1387395</v>
       </c>
     </row>
     <row r="31">
@@ -1700,16 +1700,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1334308</v>
+        <v>1327619</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1727400</v>
+        <v>1724864</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1811180</v>
+        <v>1818149</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1476151</v>
+        <v>1481134</v>
       </c>
     </row>
     <row r="32">
